--- a/excel/7/Model.xlsx
+++ b/excel/7/Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{CF2F8081-0F4A-C14C-ADB4-554AB8D448E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CF2F8081-0F4A-C14C-ADB4-554AB8D448E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="1" r:id="rId1"/>
@@ -3639,7 +3639,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Value</a:t>
+              <a:t>Equity</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -6215,7 +6215,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Value over 10 Years</a:t>
+              <a:t>Equity over 10 Years</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9742,7 +9742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15658B5-7747-FD47-AD7E-2553FBAC3AD5}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -11164,8 +11164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31E1608-2762-E444-8DDB-8749268EAFFB}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
